--- a/data/donnees_AGRICORP_2023-07-24.xlsx
+++ b/data/donnees_AGRICORP_2023-07-24.xlsx
@@ -1596,7 +1596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1609,7 +1609,7 @@
     <col width="50" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="19" customWidth="1" min="6" max="6"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
     <col width="18" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
     <col width="19" customWidth="1" min="9" max="9"/>
@@ -1819,22 +1819,22 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>59047232</v>
+        <v>31857800</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-46987402.87</v>
+        <v>-1671682.87</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>-1249999</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>-8899999</v>
+        <v>-1249999</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>-21126196</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>-19216364.87</v>
+        <v>6559923.13</v>
       </c>
     </row>
     <row r="7">
@@ -1892,10 +1892,10 @@
         <v>56380200</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-45632500</v>
+        <v>-12720400</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-2787800</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>-56380200</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>-48420300</v>
+        <v>-12720400</v>
       </c>
     </row>
     <row r="9">
@@ -1962,10 +1962,10 @@
         <v>61070100</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-19005700</v>
+        <v>-15244300</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-136918800</v>
+        <v>-47490800</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>-61070100</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>-155924500</v>
+        <v>-62735100</v>
       </c>
     </row>
     <row r="11">
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-2099880</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>-14899134.8</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>-2219880</v>
+        <v>-120000</v>
       </c>
     </row>
     <row r="13">
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-4592685</v>
+        <v>0</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>0</v>
@@ -2079,7 +2079,7 @@
         <v>-2632175</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>-4592685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2175,16 +2175,16 @@
         <v>-21147.3</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-5505045.12</v>
+        <v>-5023351.43</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>-1711471.2</v>
+        <v>-560250</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-3787435.74</v>
+        <v>-1689918</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>-9335181.359999999</v>
+        <v>-5604748.73</v>
       </c>
     </row>
     <row r="17">
@@ -2210,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-540240</v>
+        <v>0</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>-8134500</v>
+        <v>0</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>-23347128</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>-8674740</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2382,10 +2382,10 @@
         <v>31278936.56</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-2461175.59</v>
+        <v>0</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-222360</v>
+        <v>0</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         <v>-35459249.07</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>-6863848.1</v>
+        <v>-4180312.51</v>
       </c>
     </row>
     <row r="23">
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-32144160</v>
+        <v>0</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>0</v>
@@ -2429,7 +2429,7 @@
         <v>-45085920</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>-32144160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2461,10 +2461,10 @@
         <v>-1501762.19</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-1115618782.48</v>
+        <v>-1045439477.62</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>-469832119.56</v>
+        <v>-399652814.7</v>
       </c>
     </row>
     <row r="25">
@@ -2528,13 +2528,13 @@
         <v>0</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>-930000</v>
+        <v>0</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>-1112640</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>-930000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-12780000</v>
+        <v>0</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>-18840000</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>-12780000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2595,16 +2595,16 @@
         <v>0</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-12826194</v>
+        <v>0</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>-9789402</v>
+        <v>0</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>-3672000</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>-22615596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2735,16 +2735,16 @@
         <v>0</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-175000</v>
+        <v>0</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>-60000</v>
+        <v>0</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>-730000</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>-235000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -2767,7 +2767,7 @@
         <v>-10816486.69</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-12983684.3</v>
+        <v>0</v>
       </c>
       <c r="F33" s="2" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>-18290680.93</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>-42090851.92</v>
+        <v>-29107167.62</v>
       </c>
     </row>
     <row r="34">
@@ -2834,13 +2834,13 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>2763271.42</v>
+        <v>2799325.42</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-92293.49000000001</v>
+        <v>0</v>
       </c>
       <c r="G35" s="2" t="n">
         <v>0</v>
@@ -2849,7 +2849,7 @@
         <v>-2799325.42</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>-128347.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2913,13 +2913,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>-4603434</v>
+        <v>0</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>-76368600</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>-8107110</v>
+        <v>-3503676</v>
       </c>
     </row>
     <row r="38">
@@ -3018,13 +3018,13 @@
         <v>-3255840</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>-1296792</v>
+        <v>0</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>-1718472</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>-4552632</v>
+        <v>-3255840</v>
       </c>
     </row>
     <row r="41">
@@ -3420,31 +3420,31 @@
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>F22263</t>
+          <t>F22035</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>PRICE</t>
+          <t>VIGIE SA</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>0</v>
+        <v>2782080</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>-207000</v>
+        <v>0</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>-207000</v>
+        <v>0</v>
       </c>
       <c r="G52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H52" s="2" t="n">
-        <v>-207000</v>
+        <v>0</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>-621000</v>
+        <v>2782080</v>
       </c>
     </row>
     <row r="53">
@@ -3455,31 +3455,31 @@
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>F22035</t>
+          <t>F22008</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>VIGIE SA</t>
+          <t>MYE</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>2782080</v>
+        <v>141003</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>-9409776</v>
+        <v>0</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>-9409776</v>
+        <v>0</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>0</v>
+        <v>-1200000</v>
       </c>
       <c r="H53" s="2" t="n">
-        <v>0</v>
+        <v>-126000</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>-16037472</v>
+        <v>-1184997</v>
       </c>
     </row>
     <row r="54">
@@ -3490,16 +3490,16 @@
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>F22008</t>
+          <t>F22029</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>MYE</t>
+          <t>MADO</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>141003</v>
+        <v>11599.94</v>
       </c>
       <c r="E54" s="2" t="n">
         <v>0</v>
@@ -3508,13 +3508,13 @@
         <v>0</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>-1200000</v>
+        <v>0</v>
       </c>
       <c r="H54" s="2" t="n">
-        <v>-126000</v>
+        <v>0</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>-1184997</v>
+        <v>11599.94</v>
       </c>
     </row>
     <row r="55">
@@ -3525,16 +3525,16 @@
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>F22029</t>
+          <t>F22087</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>MADO</t>
+          <t>MASTER TRADE</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>11599.94</v>
+        <v>-5978937.6</v>
       </c>
       <c r="E55" s="2" t="n">
         <v>0</v>
@@ -3549,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>11599.94</v>
+        <v>-5978937.6</v>
       </c>
     </row>
     <row r="56">
@@ -3560,19 +3560,19 @@
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>F22017</t>
+          <t>F22266</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>AGRIVET</t>
+          <t>F1 SOLUTION</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>-275000</v>
+        <v>-182000</v>
       </c>
       <c r="F56" s="2" t="n">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>-275000</v>
+        <v>-182000</v>
       </c>
     </row>
     <row r="57">
@@ -3595,16 +3595,16 @@
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>F22087</t>
+          <t>F22265</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>MASTER TRADE</t>
+          <t>PWC - PRICEWATERHOUSECOOPERS TAX $ LEGAL</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-5978937.6</v>
+        <v>0</v>
       </c>
       <c r="E57" s="2" t="n">
         <v>0</v>
@@ -3616,10 +3616,10 @@
         <v>0</v>
       </c>
       <c r="H57" s="2" t="n">
-        <v>0</v>
+        <v>-83966400</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>-5978937.6</v>
+        <v>-83966400</v>
       </c>
     </row>
     <row r="58">
@@ -3630,19 +3630,19 @@
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>F22266</t>
+          <t>F22234</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>F1 SOLUTION</t>
+          <t>ORANGE</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>0</v>
+        <v>-171451.47</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>-182000</v>
+        <v>-628800</v>
       </c>
       <c r="F58" s="2" t="n">
         <v>0</v>
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>-182000</v>
+        <v>-800251.47</v>
       </c>
     </row>
     <row r="59">
@@ -3665,22 +3665,22 @@
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>F22102</t>
+          <t>F22267</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>IMANE TRAVEL SARL</t>
+          <t>RASOLOMANANJARA JEANNE CLAUDINE</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>0</v>
+        <v>1625000</v>
       </c>
       <c r="E59" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>-8350800</v>
+        <v>0</v>
       </c>
       <c r="G59" s="2" t="n">
         <v>0</v>
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="2" t="n">
-        <v>-8350800</v>
+        <v>1625000</v>
       </c>
     </row>
     <row r="60">
@@ -3700,16 +3700,16 @@
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>F22265</t>
+          <t>F22060</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>PWC - PRICEWATERHOUSECOOPERS TAX $ LEGAL</t>
+          <t>PINAH RANAIVOMBOLA</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>0</v>
+        <v>8400000</v>
       </c>
       <c r="E60" s="2" t="n">
         <v>0</v>
@@ -3721,10 +3721,10 @@
         <v>0</v>
       </c>
       <c r="H60" s="2" t="n">
-        <v>-83966400</v>
+        <v>1000000</v>
       </c>
       <c r="I60" s="2" t="n">
-        <v>-83966400</v>
+        <v>9400000</v>
       </c>
     </row>
     <row r="61">
@@ -3735,19 +3735,19 @@
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>F22234</t>
+          <t>F22127</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>ORANGE</t>
+          <t>SOCIETE MALGACHE DE FORMATION SUPERIEURE</t>
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>-800251.47</v>
+        <v>102981240</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>-628800</v>
+        <v>0</v>
       </c>
       <c r="F61" s="2" t="n">
         <v>0</v>
@@ -3756,10 +3756,10 @@
         <v>0</v>
       </c>
       <c r="H61" s="2" t="n">
-        <v>0</v>
+        <v>-121154400</v>
       </c>
       <c r="I61" s="2" t="n">
-        <v>-1429051.47</v>
+        <v>-18173160</v>
       </c>
     </row>
     <row r="62">
@@ -3770,16 +3770,16 @@
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>F22267</t>
+          <t>F22010</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>RASOLOMANANJARA JEANNE CLAUDINE</t>
+          <t>ETABLISSEMENT ECONA</t>
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>1625000</v>
+        <v>3000000</v>
       </c>
       <c r="E62" s="2" t="n">
         <v>0</v>
@@ -3791,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="H62" s="2" t="n">
-        <v>0</v>
+        <v>-3597500</v>
       </c>
       <c r="I62" s="2" t="n">
-        <v>1625000</v>
+        <v>-597500</v>
       </c>
     </row>
     <row r="63">
@@ -3805,22 +3805,22 @@
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>F22057</t>
+          <t>F22131</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>LE COMBAVA</t>
+          <t>CLAUDE VAN LEEUWEN</t>
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>836000.22</v>
+        <v>4800000</v>
       </c>
       <c r="E63" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>-303500</v>
+        <v>0</v>
       </c>
       <c r="G63" s="2" t="n">
         <v>0</v>
@@ -3829,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="2" t="n">
-        <v>532500.22</v>
+        <v>4800000</v>
       </c>
     </row>
     <row r="64">
@@ -3840,22 +3840,22 @@
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>F22264</t>
+          <t>F22015</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>QUINCAILLERIE 2000</t>
+          <t>TED</t>
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>0</v>
+        <v>3283428</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>-144600</v>
+        <v>0</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>-165600</v>
+        <v>0</v>
       </c>
       <c r="G64" s="2" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="2" t="n">
-        <v>-310200</v>
+        <v>3283428</v>
       </c>
     </row>
     <row r="65">
@@ -3875,16 +3875,16 @@
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>F22060</t>
+          <t>F22257</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>PINAH RANAIVOMBOLA</t>
+          <t>AGRISHOPS</t>
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>8400000</v>
+        <v>0</v>
       </c>
       <c r="E65" s="2" t="n">
         <v>0</v>
@@ -3896,10 +3896,10 @@
         <v>0</v>
       </c>
       <c r="H65" s="2" t="n">
-        <v>1000000</v>
+        <v>-9900</v>
       </c>
       <c r="I65" s="2" t="n">
-        <v>9400000</v>
+        <v>-9900</v>
       </c>
     </row>
     <row r="66">
@@ -3910,16 +3910,16 @@
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>F22127</t>
+          <t>F22057</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>SOCIETE MALGACHE DE FORMATION SUPERIEURE</t>
+          <t>LE COMBAVA</t>
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>102981240</v>
+        <v>836000.22</v>
       </c>
       <c r="E66" s="2" t="n">
         <v>0</v>
@@ -3931,10 +3931,10 @@
         <v>0</v>
       </c>
       <c r="H66" s="2" t="n">
-        <v>-121154400</v>
+        <v>0</v>
       </c>
       <c r="I66" s="2" t="n">
-        <v>-18173160</v>
+        <v>836000.22</v>
       </c>
     </row>
     <row r="67">
@@ -3945,16 +3945,16 @@
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>F22010</t>
+          <t>F22219</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>ETABLISSEMENT ECONA</t>
+          <t>DMS CONSULTING</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>3000000</v>
+        <v>6234374.92</v>
       </c>
       <c r="E67" s="2" t="n">
         <v>0</v>
@@ -3966,10 +3966,10 @@
         <v>0</v>
       </c>
       <c r="H67" s="2" t="n">
-        <v>-3597500</v>
+        <v>0</v>
       </c>
       <c r="I67" s="2" t="n">
-        <v>-597500</v>
+        <v>6234374.92</v>
       </c>
     </row>
     <row r="68">
@@ -3980,16 +3980,16 @@
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>F22131</t>
+          <t>F22120</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>CLAUDE VAN LEEUWEN</t>
+          <t>ETABLISSEMENT AMBIANCE ECLAIRAGE SARL</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>4800000</v>
+        <v>1500000</v>
       </c>
       <c r="E68" s="2" t="n">
         <v>0</v>
@@ -4004,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="2" t="n">
-        <v>4800000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="69">
@@ -4015,16 +4015,16 @@
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>F22015</t>
+          <t>F22053</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>TED</t>
+          <t>ASSOCIATION FANJOHY</t>
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>3283428</v>
+        <v>3204510</v>
       </c>
       <c r="E69" s="2" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="I69" s="2" t="n">
-        <v>3283428</v>
+        <v>3204510</v>
       </c>
     </row>
     <row r="70">
@@ -4050,12 +4050,12 @@
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>F22257</t>
+          <t>F22102</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>AGRISHOPS</t>
+          <t>IMANE TRAVEL SARL</t>
         </is>
       </c>
       <c r="D70" s="2" t="n">
@@ -4065,16 +4065,16 @@
         <v>0</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>0</v>
+        <v>-3027100</v>
       </c>
       <c r="G70" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H70" s="2" t="n">
-        <v>-9900</v>
+        <v>0</v>
       </c>
       <c r="I70" s="2" t="n">
-        <v>-9900</v>
+        <v>-3027100</v>
       </c>
     </row>
     <row r="71">
@@ -4085,19 +4085,19 @@
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>F22219</t>
+          <t>F22263</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>DMS CONSULTING</t>
+          <t>PRICE</t>
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>6234374.92</v>
+        <v>0</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>0</v>
+        <v>-207000</v>
       </c>
       <c r="F71" s="2" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="I71" s="2" t="n">
-        <v>6234374.92</v>
+        <v>-207000</v>
       </c>
     </row>
     <row r="72">
@@ -4120,19 +4120,19 @@
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>F22120</t>
+          <t>F22268</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>ETABLISSEMENT AMBIANCE ECLAIRAGE SARL</t>
+          <t>FUN BIKE SARL</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>0</v>
+        <v>-7637000</v>
       </c>
       <c r="F72" s="2" t="n">
         <v>0</v>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="I72" s="2" t="n">
-        <v>1500000</v>
+        <v>-7637000</v>
       </c>
     </row>
     <row r="73">
@@ -4155,16 +4155,16 @@
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>F22053</t>
+          <t>F22007</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>ASSOCIATION FANJOHY</t>
+          <t>PC NEUF</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>3204510</v>
+        <v>-162000</v>
       </c>
       <c r="E73" s="2" t="n">
         <v>0</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="I73" s="2" t="n">
-        <v>3204510</v>
+        <v>-162000</v>
       </c>
     </row>
     <row r="74">
@@ -4190,19 +4190,19 @@
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>F22268</t>
+          <t>F22264</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>FUN BIKE SARL</t>
+          <t>QUINCAILLERIE 2000</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>-7637000</v>
+        <v>-144600</v>
       </c>
       <c r="F74" s="2" t="n">
         <v>0</v>
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="I74" s="2" t="n">
-        <v>-7637000</v>
+        <v>-144600</v>
       </c>
     </row>
     <row r="75">
@@ -4225,19 +4225,19 @@
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>F22007</t>
+          <t>F22068</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>PC NEUF</t>
+          <t>ID MOTORS  INTERNATIONAL</t>
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>-162000</v>
+        <v>0</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>0</v>
+        <v>-27853728</v>
       </c>
       <c r="F75" s="2" t="n">
         <v>0</v>
@@ -4249,41 +4249,6 @@
         <v>0</v>
       </c>
       <c r="I75" s="2" t="n">
-        <v>-162000</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="inlineStr">
-        <is>
-          <t>Fournisseur</t>
-        </is>
-      </c>
-      <c r="B76" s="2" t="inlineStr">
-        <is>
-          <t>F22068</t>
-        </is>
-      </c>
-      <c r="C76" s="2" t="inlineStr">
-        <is>
-          <t>ID MOTORS  INTERNATIONAL</t>
-        </is>
-      </c>
-      <c r="D76" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E76" s="2" t="n">
-        <v>-27853728</v>
-      </c>
-      <c r="F76" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G76" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H76" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" s="2" t="n">
         <v>-27853728</v>
       </c>
     </row>

--- a/data/donnees_AGRICORP_2023-07-24.xlsx
+++ b/data/donnees_AGRICORP_2023-07-24.xlsx
@@ -4263,7 +4263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>144065829.41</v>
+        <v>44065829.41</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>0</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>144065829.41</v>
+        <v>44065829.41</v>
       </c>
     </row>
     <row r="18">
@@ -5536,7 +5536,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-161000000</v>
+        <v>-61000000</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>0</v>
@@ -5551,7 +5551,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>-161000000</v>
+        <v>-61000000</v>
       </c>
     </row>
     <row r="37">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>46358640.48</v>
+        <v>6358640.48</v>
       </c>
       <c r="E52" s="2" t="n">
         <v>0</v>
@@ -6111,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>46358640.48</v>
+        <v>6358640.48</v>
       </c>
     </row>
     <row r="53">
@@ -6481,7 +6481,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>16567090</v>
+        <v>16872090</v>
       </c>
       <c r="E63" s="2" t="n">
         <v>0</v>
@@ -6496,7 +6496,42 @@
         <v>0</v>
       </c>
       <c r="I63" s="2" t="n">
-        <v>16567090</v>
+        <v>16872090</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>Autre</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>SCIFDPRET</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>SCIFD PRET</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>40000000</v>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" s="2" t="n">
+        <v>40000000</v>
       </c>
     </row>
   </sheetData>
